--- a/PAI/Control/MEF/MEF.xlsx
+++ b/PAI/Control/MEF/MEF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Downloads\Semestre-10\PAI\Control\MEF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB7DBA50-25DA-4194-86BC-CCB13413F6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFC3F27-F296-46E3-9FAE-31D5B48C1637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B0499C18-B456-461B-8627-2F94472AEAFA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="22">
   <si>
     <t>E0</t>
   </si>
@@ -87,19 +87,22 @@
     <t>d</t>
   </si>
   <si>
-    <t>energía en motores?</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
-    <t>Seleccionar OP</t>
-  </si>
-  <si>
-    <t>Cambiar motor</t>
-  </si>
-  <si>
-    <t>Prender motor</t>
+    <t>x</t>
+  </si>
+  <si>
+    <t>ON (pulsador)</t>
+  </si>
+  <si>
+    <t>OFF (pulsador)</t>
+  </si>
+  <si>
+    <t>Parada de emergencia - ES (Switch)</t>
+  </si>
+  <si>
+    <t>Motor Energizado - EN (Switch)</t>
   </si>
 </sst>
 </file>
@@ -123,7 +126,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -147,12 +150,103 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -165,6 +259,132 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -177,7 +397,57 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -186,127 +456,18 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -315,7 +476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -330,7 +491,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -338,38 +499,101 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -392,23 +616,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>36635</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4496</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>14654</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>57020</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>421179</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>16550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F04FCC4A-468E-062D-8A94-2BAE33BBE14F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D7AC65D-E49C-9F53-028A-5FE1B15E8341}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -424,8 +648,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3685443" y="0"/>
-          <a:ext cx="4234961" cy="4863482"/>
+          <a:off x="4261438" y="0"/>
+          <a:ext cx="3457356" cy="3863185"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -734,502 +958,559 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB5C52F-D40D-4826-92EB-9D57D28D6802}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="9" t="s">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>0</v>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>1</v>
       </c>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="8">
-        <v>1</v>
-      </c>
-      <c r="F4" s="9" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15">
+        <v>1</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="35"/>
+      <c r="B5" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="36"/>
+      <c r="B6" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>1</v>
+      </c>
+      <c r="F6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="11">
-        <v>0</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="8">
-        <v>0</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="14" t="s">
+      <c r="B7" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
+      <c r="B8" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="15">
+        <v>1</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
+      <c r="B9" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="38"/>
+      <c r="B10" s="28">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="15">
+        <v>1</v>
+      </c>
+      <c r="F10" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11">
-        <v>1</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="11">
-        <v>1</v>
-      </c>
-      <c r="F9" s="12" t="s">
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="38"/>
+      <c r="B11" s="28">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="15">
+        <v>1</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="39"/>
+      <c r="B12" s="29">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16">
+        <v>1</v>
+      </c>
+      <c r="F12" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="8">
-        <v>0</v>
-      </c>
-      <c r="C10" s="8">
-        <v>0</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="8">
-        <v>0</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="14" t="s">
+      <c r="B13" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="38"/>
+      <c r="B14" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="15">
+        <v>1</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="38"/>
+      <c r="B15" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
+      <c r="B16" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="15">
+        <v>1</v>
+      </c>
+      <c r="F16" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="3">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="3">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="14" t="s">
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
+      <c r="B17" s="30">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="15">
+        <v>1</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="39"/>
+      <c r="B18" s="31">
+        <v>1</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="16">
+        <v>1</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="14">
+        <v>0</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="35"/>
+      <c r="B20" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="15">
+        <v>1</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="35"/>
+      <c r="B21" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="15">
+        <v>0</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="35"/>
+      <c r="B22" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0</v>
+      </c>
+      <c r="E22" s="17">
+        <v>1</v>
+      </c>
+      <c r="F22" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="3">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="3">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="3">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11">
-        <v>1</v>
-      </c>
-      <c r="C17" s="11">
-        <v>1</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="11">
-        <v>1</v>
-      </c>
-      <c r="F17" s="12" t="s">
+    </row>
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="36"/>
+      <c r="B23" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0</v>
+      </c>
+      <c r="E23" s="18">
+        <v>1</v>
+      </c>
+      <c r="F23" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="8">
-        <v>0</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0</v>
-      </c>
-      <c r="E18" s="8">
-        <v>0</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="3">
-        <v>1</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="11">
-        <v>1</v>
-      </c>
-      <c r="D25" s="11">
-        <v>1</v>
-      </c>
-      <c r="E25" s="11">
-        <v>1</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>3</v>
-      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="4">
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A19:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1241,7 +1522,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,7 +1583,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1310,7 +1591,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1318,7 +1599,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
